--- a/Group 1 - Final Report Project/Database_Response-En_Table.xlsx
+++ b/Group 1 - Final Report Project/Database_Response-En_Table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFBCBEB-E36F-4B2C-8374-E0F70B836BAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79C1B31-793E-4B92-8C91-F8005F5F29FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -1561,6 +1561,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B71"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B2:B5"/>
@@ -1573,14 +1581,6 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
